--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,151 +61,151 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>easter</t>
   </si>
   <si>
     <t>hope</t>
@@ -817,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>0.9777777777777777</v>
@@ -1149,7 +1149,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.9722222222222222</v>
@@ -1199,7 +1199,7 @@
         <v>409</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.96875</v>
@@ -1224,32 +1224,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.09558823529411764</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>217</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>123</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.9655172413793104</v>
@@ -1275,7 +1251,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.9145299145299145</v>
@@ -1301,7 +1277,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.8947368421052632</v>
@@ -1327,7 +1303,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.889763779527559</v>
@@ -1353,7 +1329,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.8846153846153846</v>
@@ -1379,7 +1355,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.8807339449541285</v>
@@ -1405,7 +1381,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.8666666666666667</v>
@@ -1431,7 +1407,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1457,7 +1433,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.8666666666666667</v>
@@ -1483,7 +1459,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.8636363636363636</v>
@@ -1509,7 +1485,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.8529411764705882</v>
@@ -1535,7 +1511,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.84</v>
@@ -1561,7 +1537,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.8253968253968254</v>
@@ -1587,7 +1563,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>0.8245614035087719</v>
@@ -1613,7 +1589,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>0.8125</v>
@@ -1639,7 +1615,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
         <v>0.8085106382978723</v>
@@ -1665,7 +1641,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0.8</v>
@@ -1691,7 +1667,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>0.7884615384615384</v>
@@ -1717,7 +1693,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>0.7777777777777778</v>
@@ -1743,7 +1719,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>0.7777777777777778</v>
@@ -1769,7 +1745,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>0.75</v>
@@ -1795,7 +1771,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>0.75</v>
@@ -1821,7 +1797,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>0.7450980392156863</v>
@@ -1847,59 +1823,59 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.73568281938326</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L33">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>0.6956521739130435</v>
@@ -1925,7 +1901,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>0.6888888888888889</v>
@@ -1951,7 +1927,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>0.6818181818181818</v>
@@ -1977,7 +1953,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>0.6785714285714286</v>
@@ -2003,7 +1979,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <v>0.6666666666666666</v>
@@ -2029,7 +2005,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>0.6666666666666666</v>
@@ -2055,7 +2031,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>0.6585365853658537</v>
@@ -2081,7 +2057,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>0.6521739130434783</v>
@@ -2107,7 +2083,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>0.6491228070175439</v>
@@ -2133,7 +2109,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
         <v>0.6404199475065617</v>
@@ -2159,7 +2135,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
         <v>0.6285714285714286</v>
@@ -2185,28 +2161,28 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.6238532110091743</v>
+        <v>0.62</v>
       </c>
       <c r="L46">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2214,25 +2190,25 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.62</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2240,25 +2216,25 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.6153846153846154</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2272,16 +2248,16 @@
         <v>19</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N49">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -2292,13 +2268,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2310,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="10:17">
